--- a/文档/餐饮后台管理系统项目进度把控表.xlsx
+++ b/文档/餐饮后台管理系统项目进度把控表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>项目名称</t>
   </si>
@@ -171,7 +171,10 @@
     <t>成本员工薪水修改、美化页面</t>
   </si>
   <si>
-    <t>会员获取订单数据,算出积分,根据积分换折扣和等级</t>
+    <t>系统说明</t>
+  </si>
+  <si>
+    <t>会员获取订单数据,算出积分,等级和折扣</t>
   </si>
   <si>
     <t>商品通过Vuex共享数据给订单</t>
@@ -199,8 +202,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -225,8 +228,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -241,37 +305,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -279,8 +312,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,53 +337,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,6 +357,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -401,114 +404,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -516,72 +585,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,6 +618,21 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,6 +670,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -667,41 +700,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,10 +725,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,133 +737,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1256,7 +1259,7 @@
   <dimension ref="A2:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1843,14 +1846,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="5:5">
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="14">
+        <v>42951</v>
+      </c>
       <c r="E35" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>31</v>
@@ -1870,7 +1882,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>33</v>
@@ -1890,7 +1902,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>20</v>
@@ -1910,7 +1922,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>20</v>
@@ -1921,7 +1933,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>33</v>
@@ -1932,7 +1944,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>29</v>
@@ -1943,7 +1955,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>37</v>

--- a/文档/餐饮后台管理系统项目进度把控表.xlsx
+++ b/文档/餐饮后台管理系统项目进度把控表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="454"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="61">
   <si>
     <t>项目名称</t>
   </si>
@@ -201,6 +201,18 @@
   </si>
   <si>
     <t>2017/8/1 -- 2017/8/11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存页面布局</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全员</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -315,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -342,6 +354,7 @@
     <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -363,12 +376,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -670,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H44"/>
+  <dimension ref="A2:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -690,107 +697,107 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
@@ -811,14 +818,14 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
@@ -962,7 +969,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>28</v>
@@ -1324,7 +1331,7 @@
       <c r="A38" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C38" s="8">
@@ -1350,9 +1357,15 @@
       <c r="C39" s="8">
         <v>42954</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="22"/>
+      <c r="D39" s="9">
+        <v>42954</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
@@ -1364,9 +1377,15 @@
       <c r="C40" s="8">
         <v>42954</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="22"/>
+      <c r="D40" s="9">
+        <v>42954</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
@@ -1378,6 +1397,15 @@
       <c r="C41" s="8">
         <v>42954</v>
       </c>
+      <c r="D41" s="9">
+        <v>42954</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
@@ -1389,6 +1417,15 @@
       <c r="C42" s="8">
         <v>42954</v>
       </c>
+      <c r="D42" s="9">
+        <v>42954</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
@@ -1400,6 +1437,15 @@
       <c r="C43" s="8">
         <v>42954</v>
       </c>
+      <c r="D43" s="9">
+        <v>42954</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
@@ -1410,6 +1456,26 @@
       </c>
       <c r="C44" s="8">
         <v>42954</v>
+      </c>
+      <c r="D44" s="9">
+        <v>42954</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="8">
+        <v>42955</v>
       </c>
     </row>
   </sheetData>

--- a/文档/餐饮后台管理系统项目进度把控表.xlsx
+++ b/文档/餐饮后台管理系统项目进度把控表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>项目名称</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>全员</t>
+  </si>
+  <si>
+    <t>完善项目文档</t>
   </si>
 </sst>
 </file>
@@ -206,9 +209,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -228,38 +231,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,16 +260,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,40 +276,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,16 +323,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,6 +358,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -410,25 +413,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,157 +593,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,36 +642,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -687,17 +660,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,16 +717,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,10 +745,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -754,133 +757,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1274,10 +1277,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:H45"/>
+  <dimension ref="A2:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2081,6 +2084,26 @@
         <v>20</v>
       </c>
       <c r="F45" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:6">
+      <c r="A46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="14">
+        <v>42956</v>
+      </c>
+      <c r="D46" s="15">
+        <v>42956</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="16" t="s">
         <v>21</v>
       </c>
     </row>

--- a/文档/餐饮后台管理系统项目进度把控表.xlsx
+++ b/文档/餐饮后台管理系统项目进度把控表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>项目名称</t>
   </si>
@@ -90,6 +90,12 @@
     <t>李安妮、丁苗</t>
   </si>
   <si>
+    <t>构思各自负责的模块</t>
+  </si>
+  <si>
+    <t>全员</t>
+  </si>
+  <si>
     <t>人事页面布局</t>
   </si>
   <si>
@@ -198,10 +204,19 @@
     <t>完善项目</t>
   </si>
   <si>
-    <t>全员</t>
-  </si>
-  <si>
-    <t>完善项目文档</t>
+    <t>发布项目、再次完善项目</t>
+  </si>
+  <si>
+    <t>遇到背景图片路径问题</t>
+  </si>
+  <si>
+    <t>完善项目文档、再次完善项目</t>
+  </si>
+  <si>
+    <t>遇到疑难bug</t>
+  </si>
+  <si>
+    <t>再次完善项目文档</t>
   </si>
 </sst>
 </file>
@@ -209,10 +224,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -228,44 +243,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -285,6 +262,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -292,54 +276,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,8 +303,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,6 +348,46 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -413,187 +428,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,17 +657,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,17 +729,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,49 +754,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,133 +772,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1277,10 +1292,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:H46"/>
+  <dimension ref="A2:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1491,14 +1506,14 @@
       <c r="A16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="14">
-        <v>42949</v>
+        <v>42948</v>
       </c>
       <c r="D16" s="15">
-        <v>42949</v>
+        <v>42948</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>20</v>
@@ -1508,10 +1523,10 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="14">
@@ -1552,7 +1567,7 @@
         <v>30</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C19" s="14">
         <v>42949</v>
@@ -1569,10 +1584,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C20" s="14">
         <v>42949</v>
@@ -1611,14 +1626,14 @@
       <c r="A22" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>25</v>
+      <c r="B22" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="C22" s="14">
-        <v>42950</v>
+        <v>42949</v>
       </c>
       <c r="D22" s="15">
-        <v>42950</v>
+        <v>42949</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>20</v>
@@ -1629,9 +1644,9 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="14">
@@ -1649,7 +1664,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>29</v>
@@ -1669,10 +1684,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C25" s="14">
         <v>42950</v>
@@ -1689,10 +1704,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C26" s="14">
         <v>42950</v>
@@ -1709,7 +1724,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>34</v>
@@ -1717,41 +1732,41 @@
       <c r="C27" s="14">
         <v>42950</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="15">
+        <v>42950</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="14">
+        <v>42950</v>
+      </c>
+      <c r="D28" s="17">
         <v>42951</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="14">
-        <v>42951</v>
-      </c>
-      <c r="D28" s="15">
-        <v>42951</v>
-      </c>
       <c r="E28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="16" t="s">
-        <v>21</v>
+      <c r="F28" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="14">
@@ -1769,7 +1784,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>29</v>
@@ -1789,10 +1804,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C31" s="14">
         <v>42951</v>
@@ -1808,11 +1823,11 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="16" t="s">
-        <v>46</v>
+      <c r="A32" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C32" s="14">
         <v>42951</v>
@@ -1829,7 +1844,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>34</v>
@@ -1848,17 +1863,17 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>25</v>
+      <c r="A34" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="C34" s="14">
         <v>42951</v>
       </c>
       <c r="D34" s="15">
-        <v>42953</v>
+        <v>42951</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>20</v>
@@ -1869,13 +1884,13 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C35" s="14">
-        <v>42953</v>
+        <v>42951</v>
       </c>
       <c r="D35" s="15">
         <v>42953</v>
@@ -1889,7 +1904,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>29</v>
@@ -1909,10 +1924,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C37" s="14">
         <v>42953</v>
@@ -1929,10 +1944,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>34</v>
+        <v>53</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="C38" s="14">
         <v>42953</v>
@@ -1949,16 +1964,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>25</v>
+        <v>54</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="C39" s="14">
-        <v>42954</v>
+        <v>42953</v>
       </c>
       <c r="D39" s="15">
-        <v>42954</v>
+        <v>42953</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>20</v>
@@ -1969,7 +1984,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>27</v>
@@ -1989,10 +2004,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>20</v>
+        <v>56</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="C41" s="14">
         <v>42954</v>
@@ -2009,10 +2024,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C42" s="14">
         <v>42954</v>
@@ -2029,10 +2044,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C43" s="14">
         <v>42954</v>
@@ -2049,10 +2064,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C44" s="14">
         <v>42954</v>
@@ -2069,16 +2084,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="18" t="s">
         <v>60</v>
       </c>
+      <c r="B45" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="C45" s="14">
-        <v>42955</v>
+        <v>42954</v>
       </c>
       <c r="D45" s="15">
-        <v>42955</v>
+        <v>42954</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>20</v>
@@ -2087,23 +2102,163 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" customFormat="1" spans="1:6">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>61</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C46" s="14">
+        <v>42955</v>
+      </c>
+      <c r="D46" s="15">
+        <v>42955</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:6">
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="14">
         <v>42956</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D47" s="17">
         <v>42956</v>
       </c>
-      <c r="E46" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="16" t="s">
+      <c r="E47" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:6">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="14">
+        <v>42956</v>
+      </c>
+      <c r="D48" s="17">
+        <v>42956</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:6">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="14">
+        <v>42956</v>
+      </c>
+      <c r="D49" s="15">
+        <v>42956</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:6">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="14">
+        <v>42956</v>
+      </c>
+      <c r="D50" s="15">
+        <v>42956</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:6">
+      <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="14">
+        <v>42956</v>
+      </c>
+      <c r="D51" s="15">
+        <v>42956</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:6">
+      <c r="A52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="14">
+        <v>42956</v>
+      </c>
+      <c r="D52" s="15">
+        <v>42956</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="14">
+        <v>42957</v>
+      </c>
+      <c r="D53" s="15">
+        <v>42957</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="16" t="s">
         <v>21</v>
       </c>
     </row>
